--- a/analysis/mass_analysis_bilbo/BC04.xlsx
+++ b/analysis/mass_analysis_bilbo/BC04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008858765737686852</v>
+        <v>0.008809978110091236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006626332483484515</v>
+        <v>0.006660021889908763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01548509822117137</v>
+        <v>0.01547</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01648559405941081</v>
+        <v>0.01962885579184618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0172171219798633</v>
+        <v>0.01404114420815382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03370271603927411</v>
+        <v>0.03367</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02779950636395341</v>
+        <v>0.03276607261960125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02412187518716139</v>
+        <v>0.01910392738039875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05192138155111481</v>
+        <v>0.05187</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04104770472660948</v>
+        <v>0.04737062431401907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02902818107651068</v>
+        <v>0.02269937568598093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07007588580312016</v>
+        <v>0.07006999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05144113606263537</v>
+        <v>0.06178456063982525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0368518625040011</v>
+        <v>0.02648543936017475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08829299856663647</v>
+        <v>0.08827</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06506720241170452</v>
+        <v>0.07761497415822956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04144343290554833</v>
+        <v>0.02885502584177044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1065106353172529</v>
+        <v>0.10647</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07575883127767112</v>
+        <v>0.09138989432687589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04896367000745307</v>
+        <v>0.03328010567312412</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1247225012851242</v>
+        <v>0.12467</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0888701272623332</v>
+        <v>0.1086496423146023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0540057761266583</v>
+        <v>0.03422035768539769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1428759033889915</v>
+        <v>0.14287</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1003360406238335</v>
+        <v>0.1230344318015165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06076455612721503</v>
+        <v>0.03803556819848351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1611005967510485</v>
+        <v>0.16107</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1072509885789055</v>
+        <v>0.1296658082651949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07206314619709804</v>
+        <v>0.04960419173480507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1793141347760035</v>
+        <v>0.17927</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1162937720233077</v>
+        <v>0.1394372380915557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08123219222207477</v>
+        <v>0.05803276190844434</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1975259642453825</v>
+        <v>0.19747</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1268755281958299</v>
+        <v>0.1535455154521512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0888043732030866</v>
+        <v>0.06212448454784877</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2156799013989165</v>
+        <v>0.21567</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1328724909325092</v>
+        <v>0.1619481778548958</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1010356037372707</v>
+        <v>0.0719218221451042</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2339080946697798</v>
+        <v>0.23387</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1291543971357641</v>
+        <v>0.1553883116075081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1137506036246883</v>
+        <v>0.08564035505915854</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2429050007604524</v>
+        <v>0.2410286666666667</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1250734239802901</v>
+        <v>0.1547263792282108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1342276418683075</v>
+        <v>0.1026822874384559</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2593010658485976</v>
+        <v>0.2574086666666667</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1240761893278281</v>
+        <v>0.1518658391001803</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1534523732129924</v>
+        <v>0.1237428275664864</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2775285625408205</v>
+        <v>0.2756086666666667</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.120750631869295</v>
+        <v>0.1493589752292592</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1749419665555802</v>
+        <v>0.1444496914374075</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2956925984248752</v>
+        <v>0.2938086666666667</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1166468913233991</v>
+        <v>0.1422976920994822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1972625155995765</v>
+        <v>0.1697109745671844</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3139094069229756</v>
+        <v>0.3120086666666667</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1162514183800346</v>
+        <v>0.1396433975937124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2158707323685203</v>
+        <v>0.1905652690729543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3321221507485549</v>
+        <v>0.3302086666666667</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1121619901657539</v>
+        <v>0.1344233264271095</v>
       </c>
       <c r="C22" t="n">
-        <v>0.238180779972865</v>
+        <v>0.2139853402395572</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3503427701386189</v>
+        <v>0.3484086666666667</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1108008149328278</v>
+        <v>0.1340221238901934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2576969426661887</v>
+        <v>0.2325865427764733</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3684977575990165</v>
+        <v>0.3666086666666667</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1101661260351921</v>
+        <v>0.1327837157257984</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2765517524790025</v>
+        <v>0.2520249509408683</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3867178785141947</v>
+        <v>0.3848086666666667</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>115</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1119522459078574</v>
+        <v>0.1356364208621914</v>
       </c>
       <c r="C25" t="n">
-        <v>0.292984502021599</v>
+        <v>0.2673722458044753</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4049367479294563</v>
+        <v>0.4030086666666667</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>120</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1208649213351562</v>
+        <v>0.1473749608672591</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3022278041675486</v>
+        <v>0.2738337057994076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4230927255027048</v>
+        <v>0.4212086666666667</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1218400298410593</v>
+        <v>0.1491186452689771</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3194724107400286</v>
+        <v>0.2902900213976896</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4413124405810879</v>
+        <v>0.4394086666666667</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>130</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1250830929717251</v>
+        <v>0.1530280682288691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3344414412724596</v>
+        <v>0.3045805984377976</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4595245342441847</v>
+        <v>0.4576086666666667</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>135</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1360653563241319</v>
+        <v>0.1676388187887722</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3416796341629204</v>
+        <v>0.3081698478778945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4777449904870523</v>
+        <v>0.4758086666666667</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>140</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1400585829106886</v>
+        <v>0.1739629761944984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3558459959648811</v>
+        <v>0.3200456904721683</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4959045788755697</v>
+        <v>0.4940086666666667</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>145</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1381628225734866</v>
+        <v>0.1751005070662512</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3753654019280026</v>
+        <v>0.3365318262670821</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5135282245014892</v>
+        <v>0.5116323333333332</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>150</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137647930899245</v>
+        <v>0.1721092036262218</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3795901966950493</v>
+        <v>0.3432541297071114</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>155</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1340329622776618</v>
+        <v>0.170051577504357</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3832051653166326</v>
+        <v>0.3453117558289763</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>160</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1346542602024535</v>
+        <v>0.1658196179178834</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3825838673918408</v>
+        <v>0.3495437154154499</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>165</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1326197895560116</v>
+        <v>0.1658076993031604</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3846183380382827</v>
+        <v>0.3495556340301729</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>170</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1290271238688329</v>
+        <v>0.1621413558705697</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3882110037254614</v>
+        <v>0.3532219774627636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>175</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1237462906083013</v>
+        <v>0.1564067898830885</v>
       </c>
       <c r="C37" t="n">
-        <v>0.393491836985993</v>
+        <v>0.3589565434502449</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>180</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1205864804170866</v>
+        <v>0.1505696023746743</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3966516471772077</v>
+        <v>0.364793730958659</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>185</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1195974466473582</v>
+        <v>0.1497078238252957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3976406809469362</v>
+        <v>0.3656555095080376</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>190</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1170417511635277</v>
+        <v>0.1461296882530794</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4001963764307666</v>
+        <v>0.3692336450802539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>195</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1168773489619109</v>
+        <v>0.1430830976947755</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4003607786323834</v>
+        <v>0.3722802356385578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>200</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1150743627031142</v>
+        <v>0.140770690984402</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4021637648911801</v>
+        <v>0.3745926423489313</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>205</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1149017805267076</v>
+        <v>0.1414974763978234</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4023363470675867</v>
+        <v>0.3738658569355099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>210</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1147030813781324</v>
+        <v>0.1412671380652837</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4025350462161619</v>
+        <v>0.3740961952680496</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>215</v>
       </c>
       <c r="B45" t="n">
-        <v>0.111454071664206</v>
+        <v>0.1391895294943879</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4057840559300884</v>
+        <v>0.3761738038389454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>220</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1103964966206399</v>
+        <v>0.1391639752144001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4068416309736544</v>
+        <v>0.3761993581189332</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>225</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1083164292625123</v>
+        <v>0.1358372884875842</v>
       </c>
       <c r="C47" t="n">
-        <v>0.408921698331782</v>
+        <v>0.379526044845749</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>230</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1079888877651814</v>
+        <v>0.1343079438298308</v>
       </c>
       <c r="C48" t="n">
-        <v>0.409249239829113</v>
+        <v>0.3810553895035025</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>235</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10469305646746</v>
+        <v>0.1316978976390971</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4125450711268344</v>
+        <v>0.3836654356942362</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>240</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1041036705899045</v>
+        <v>0.130758728230456</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4131344570043898</v>
+        <v>0.3846046051028773</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>245</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1007699322743437</v>
+        <v>0.1268440481883051</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4164681953199506</v>
+        <v>0.3885192851450282</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>250</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1022122472262809</v>
+        <v>0.1300037557319079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4150258803680134</v>
+        <v>0.3853595776014254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>255</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09908177571520133</v>
+        <v>0.1261276916212612</v>
       </c>
       <c r="C53" t="n">
-        <v>0.418156351879093</v>
+        <v>0.389235641712072</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>260</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09689862848892357</v>
+        <v>0.1223604232850308</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4203394991053708</v>
+        <v>0.3930029100483025</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>265</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09555024537206183</v>
+        <v>0.1207620144148935</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4216878822222325</v>
+        <v>0.3946013189184397</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>270</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09401604514639948</v>
+        <v>0.1191767485148938</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4232220824478948</v>
+        <v>0.3961865848184395</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>275</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09144235919789225</v>
+        <v>0.115633035799654</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4257957683964021</v>
+        <v>0.3997302975336793</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>280</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08823906419922417</v>
+        <v>0.1121917741095707</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4289990633950702</v>
+        <v>0.4031715592237626</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0879547787298937</v>
+        <v>0.1111504509539846</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4292833488644006</v>
+        <v>0.4042128823793487</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>290</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08609543874058258</v>
+        <v>0.109437809510597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4311426888537118</v>
+        <v>0.4059255238227363</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>295</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08338513611704022</v>
+        <v>0.1054146149179935</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4338529914772541</v>
+        <v>0.4099487184153398</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>300</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08095539415805442</v>
+        <v>0.1020040215525115</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4362827334362399</v>
+        <v>0.4133593117808217</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>305</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07978701192609457</v>
+        <v>0.1015426866710211</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4374511156681998</v>
+        <v>0.4138206466623122</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>310</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07698461610019641</v>
+        <v>0.09735290122570235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4402535114940979</v>
+        <v>0.4180104321076309</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>315</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07462025255201302</v>
+        <v>0.09584164668633456</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4426178750422813</v>
+        <v>0.4195216866469987</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>320</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07308547507006655</v>
+        <v>0.09438028384324053</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4441526525242278</v>
+        <v>0.4209830494900927</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>325</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06981148580968188</v>
+        <v>0.09015773111563388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4474266417846124</v>
+        <v>0.4252056022176994</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>330</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06865248215778129</v>
+        <v>0.0879585646768318</v>
       </c>
       <c r="C68" t="n">
-        <v>0.448585645436513</v>
+        <v>0.4274047686565015</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>335</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06732892004501062</v>
+        <v>0.08737562553814977</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4499092075492837</v>
+        <v>0.4279877077951835</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>340</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06428972670061454</v>
+        <v>0.08404443497392275</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4529484008936798</v>
+        <v>0.4313188983594105</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>345</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06293109471501224</v>
+        <v>0.08138724866280021</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4543070328792821</v>
+        <v>0.4339760846705331</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>350</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06115340000024041</v>
+        <v>0.08102326879393577</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4560847275940539</v>
+        <v>0.4343400645393975</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>355</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06024549345350097</v>
+        <v>0.07731696153540876</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4569926341407934</v>
+        <v>0.4380463717979245</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="74">
@@ -1468,3037 +1468,1861 @@
         <v>360</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05852282961348028</v>
+        <v>0.07592385241669321</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4587152979808141</v>
+        <v>0.4394394809166401</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05545557742800233</v>
+        <v>0.06978004517871922</v>
       </c>
       <c r="C75" t="n">
-        <v>0.461782550166292</v>
+        <v>0.4455832881546141</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05386567509451729</v>
+        <v>0.06675699814460039</v>
       </c>
       <c r="C76" t="n">
-        <v>0.463372452499777</v>
+        <v>0.4486063351887329</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B77" t="n">
-        <v>0.05323541873138459</v>
+        <v>0.06294812861825093</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4640027088629097</v>
+        <v>0.4524152047150823</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05103625962418789</v>
+        <v>0.05987974499614826</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4662018679701064</v>
+        <v>0.4554835883371851</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0493832273709035</v>
+        <v>0.05381703910591509</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4678549002233908</v>
+        <v>0.4615462942274182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04745943039246005</v>
+        <v>0.05085626770518892</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4697786972018343</v>
+        <v>0.4645070656281444</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04731012376740529</v>
+        <v>0.03968898532405226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.469928003826889</v>
+        <v>0.475674348009281</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04538359190744524</v>
+        <v>0.03778811756740829</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4718545356868491</v>
+        <v>0.477575215765925</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04267825498001405</v>
+        <v>0.03570405596937403</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4745598726142803</v>
+        <v>0.4796592773639592</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04006486503372836</v>
+        <v>0.03106652375054667</v>
       </c>
       <c r="C84" t="n">
-        <v>0.477173262560566</v>
+        <v>0.4842968095827866</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03868197080504247</v>
+        <v>0.02722458157974343</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4785561567892518</v>
+        <v>0.4881387517535898</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03871411586876421</v>
+        <v>0.02522221380870852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4785240117255301</v>
+        <v>0.4901411195246247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03680662502372235</v>
+        <v>0.02553196421046427</v>
       </c>
       <c r="C87" t="n">
-        <v>0.480431502570572</v>
+        <v>0.489831369122869</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03280103616312884</v>
+        <v>0.02406079380473989</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4844370914311655</v>
+        <v>0.4913025395285934</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02983126682737459</v>
+        <v>0.02283291780924305</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4874068607669197</v>
+        <v>0.4925304155240902</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02551538971060894</v>
+        <v>0.02242083385343714</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4917227378836854</v>
+        <v>0.4929424994798962</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0248769920297446</v>
+        <v>0.01983969030790542</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4923611355645497</v>
+        <v>0.4955236430254278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02328371935522405</v>
+        <v>0.01849915029415116</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4939544082390703</v>
+        <v>0.4968641830391821</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>455</v>
+        <v>550</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02217153727639818</v>
+        <v>0.01738019889607403</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4950665903178961</v>
+        <v>0.4979831344372593</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02181124883320469</v>
+        <v>0.01474787657883123</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4954268787610897</v>
+        <v>0.500615456754502</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>465</v>
+        <v>570</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0202522044225411</v>
+        <v>0.01375610032853812</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4969859231717532</v>
+        <v>0.5016072330047951</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0192268413446216</v>
+        <v>0.01330477638387365</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4980112862496727</v>
+        <v>0.5020585569494597</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>475</v>
+        <v>590</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0184910623094705</v>
+        <v>0.01208453183484375</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4987470652848238</v>
+        <v>0.5032788014984896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01833961584616008</v>
+        <v>0.01169468440940683</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4988985117481343</v>
+        <v>0.5036686489239265</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0184378916436905</v>
+        <v>0.01142539843961669</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4988002359506039</v>
+        <v>0.5039379348937166</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>490</v>
+        <v>620</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01818247545798068</v>
+        <v>0.01156322612041127</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4990556521363136</v>
+        <v>0.503800107212922</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01813105712850951</v>
+        <v>0.01113241898147249</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4991070704657848</v>
+        <v>0.5042309143518607</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01687113290326431</v>
+        <v>0.01083665697321572</v>
       </c>
       <c r="C102" t="n">
-        <v>0.50036699469103</v>
+        <v>0.5045266763601176</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01679177010248892</v>
+        <v>0.01042563796256121</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5004463574918054</v>
+        <v>0.504937695370772</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01597060230118171</v>
+        <v>0.01030114282795873</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5012675252931126</v>
+        <v>0.5050621905053746</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01627169545705923</v>
+        <v>0.009617052828069544</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5009664321372351</v>
+        <v>0.5057462805052637</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01592859970293868</v>
+        <v>0.009180642391559654</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5013095278913556</v>
+        <v>0.5061826909417736</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>525</v>
+        <v>690</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01471152304512253</v>
+        <v>0.008857416884172475</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5025266045491718</v>
+        <v>0.5065059164491608</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01385672749288687</v>
+        <v>0.008529912459011911</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5033814001014074</v>
+        <v>0.5068334208743214</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>535</v>
+        <v>710</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01330376614065895</v>
+        <v>0.008013007299925705</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5039343614536353</v>
+        <v>0.5073503260334076</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01287383600681573</v>
+        <v>0.007254824182803172</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5043642915874786</v>
+        <v>0.5081085091505301</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>545</v>
+        <v>730</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01243000745064376</v>
+        <v>0.006561814939098348</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5048081201436506</v>
+        <v>0.5088015183942349</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>550</v>
+        <v>740</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01224483303370247</v>
+        <v>0.005207685426287197</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5049932945605918</v>
+        <v>0.510155647907046</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>555</v>
+        <v>750</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01055264929360268</v>
+        <v>0.003216350702160752</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5066854783006917</v>
+        <v>0.5121469826311725</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>560</v>
+        <v>760</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01031963369058148</v>
+        <v>0.002941275747334712</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5069184939037128</v>
+        <v>0.5124220575859986</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>565</v>
+        <v>770</v>
       </c>
       <c r="B115" t="n">
-        <v>0.009566941778363633</v>
+        <v>0.002537468867045661</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5076711858159307</v>
+        <v>0.5128258644662876</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>570</v>
+        <v>780</v>
       </c>
       <c r="B116" t="n">
-        <v>0.009776987166261466</v>
+        <v>0.002157211866464836</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5074611404280328</v>
+        <v>0.5132061214668685</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>575</v>
+        <v>790</v>
       </c>
       <c r="B117" t="n">
-        <v>0.009507559498032066</v>
+        <v>0.001306691402480922</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5077305680962623</v>
+        <v>0.5140566419308523</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="B118" t="n">
-        <v>0.009208000844007233</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5080301267502871</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>585</v>
+        <v>810</v>
       </c>
       <c r="B119" t="n">
-        <v>0.009075793717918499</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5081623338763759</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>590</v>
+        <v>820</v>
       </c>
       <c r="B120" t="n">
-        <v>0.008285386254885693</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5089527413394086</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>595</v>
+        <v>830</v>
       </c>
       <c r="B121" t="n">
-        <v>0.008107284875609395</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5091308427186849</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="B122" t="n">
-        <v>0.00813082056165651</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5091073070326378</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>605</v>
+        <v>850</v>
       </c>
       <c r="B123" t="n">
-        <v>0.007876393397486268</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5093617341968081</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>610</v>
+        <v>860</v>
       </c>
       <c r="B124" t="n">
-        <v>0.007890457809566027</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5093476697847283</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>615</v>
+        <v>870</v>
       </c>
       <c r="B125" t="n">
-        <v>0.007795004769269069</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5094431228250252</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>620</v>
+        <v>880</v>
       </c>
       <c r="B126" t="n">
-        <v>0.007846500806606692</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5093916267876877</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>625</v>
+        <v>890</v>
       </c>
       <c r="B127" t="n">
-        <v>0.007707389051160541</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5095307385431338</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="B128" t="n">
-        <v>0.007562463228375647</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5096756643659187</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>635</v>
+        <v>910</v>
       </c>
       <c r="B129" t="n">
-        <v>0.00758318640587716</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5096549411884171</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>640</v>
+        <v>920</v>
       </c>
       <c r="B130" t="n">
-        <v>0.007444862146036732</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5097932654482576</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>645</v>
+        <v>930</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007186614325423868</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5100515132688704</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>650</v>
+        <v>940</v>
       </c>
       <c r="B132" t="n">
-        <v>0.007307358451584359</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.50993076914271</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>655</v>
+        <v>950</v>
       </c>
       <c r="B133" t="n">
-        <v>0.007297569717131041</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5099405578771633</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="B134" t="n">
-        <v>0.007243667020498965</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5099944605737954</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>665</v>
+        <v>970</v>
       </c>
       <c r="B135" t="n">
-        <v>0.007017144806012312</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.510220982788282</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>670</v>
+        <v>980</v>
       </c>
       <c r="B136" t="n">
-        <v>0.006795093515273424</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5104430340790209</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>675</v>
+        <v>990</v>
       </c>
       <c r="B137" t="n">
-        <v>0.00648842969170499</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5107496979025893</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="B138" t="n">
-        <v>0.006387422054305894</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5108507055399885</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>685</v>
+        <v>1010</v>
       </c>
       <c r="B139" t="n">
-        <v>0.00625987586557538</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5109782517287189</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="B140" t="n">
-        <v>0.006151556814978107</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5110865707793162</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>695</v>
+        <v>1030</v>
       </c>
       <c r="B141" t="n">
-        <v>0.006101865236324085</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5111362623579703</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="B142" t="n">
-        <v>0.006079632007608542</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5111584955866858</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>705</v>
+        <v>1050</v>
       </c>
       <c r="B143" t="n">
-        <v>0.005872072770969137</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5113660548233252</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>710</v>
+        <v>1060</v>
       </c>
       <c r="B144" t="n">
-        <v>0.005636767071929859</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5116013605223645</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>715</v>
+        <v>1070</v>
       </c>
       <c r="B145" t="n">
-        <v>0.005647097453992844</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5115910301403015</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="B146" t="n">
-        <v>0.005291024833338285</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.511947102760956</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>725</v>
+        <v>1090</v>
       </c>
       <c r="B147" t="n">
-        <v>0.005014683577240195</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5122234440170541</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="B148" t="n">
-        <v>0.004882855547673141</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5123552720466212</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>735</v>
+        <v>1110</v>
       </c>
       <c r="B149" t="n">
-        <v>0.004444977500402163</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5127931500938921</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>740</v>
+        <v>1120</v>
       </c>
       <c r="B150" t="n">
-        <v>0.004001554646953269</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.513236572947341</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>745</v>
+        <v>1130</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0031960691251604</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.514042058469134</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>750</v>
+        <v>1140</v>
       </c>
       <c r="B152" t="n">
-        <v>0.002525186672032598</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5147129409222617</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>755</v>
+        <v>1150</v>
       </c>
       <c r="B153" t="n">
-        <v>0.002377824687467758</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5148603029068266</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>760</v>
+        <v>1160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.002384898238236836</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5148532293560575</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>765</v>
+        <v>1170</v>
       </c>
       <c r="B155" t="n">
-        <v>0.001938530899052856</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5152995966952415</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>770</v>
+        <v>1180</v>
       </c>
       <c r="B156" t="n">
-        <v>0.001858617811877672</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5153795097824166</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>775</v>
+        <v>1190</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001744029584874459</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5154940980094199</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="B158" t="n">
-        <v>0.001646837905668225</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5155912896886261</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>785</v>
+        <v>1210</v>
       </c>
       <c r="B159" t="n">
-        <v>0.001415210765821186</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5158229168284731</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>790</v>
+        <v>1220</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0009826312162716261</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5162554963780227</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>795</v>
+        <v>1230</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0007167289547570885</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5165213986395373</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>800</v>
+        <v>1240</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0005058367142334344</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5167322908800609</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>805</v>
+        <v>1250</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>810</v>
+        <v>1260</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>815</v>
+        <v>1270</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>820</v>
+        <v>1280</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>825</v>
+        <v>1290</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>830</v>
+        <v>1300</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>835</v>
+        <v>1310</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>840</v>
+        <v>1320</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>845</v>
+        <v>1330</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>850</v>
+        <v>1340</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D172" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>855</v>
+        <v>1350</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>860</v>
+        <v>1360</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>865</v>
+        <v>1370</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D175" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>870</v>
+        <v>1380</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>875</v>
+        <v>1390</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>880</v>
+        <v>1400</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>885</v>
+        <v>1410</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>890</v>
+        <v>1420</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>895</v>
+        <v>1430</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>900</v>
+        <v>1440</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>905</v>
+        <v>1500</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>910</v>
+        <v>1560</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>0.0001579044515088007</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5152054288818245</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>915</v>
+        <v>1620</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>920</v>
+        <v>1680</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>925</v>
+        <v>1740</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>930</v>
+        <v>1800</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>935</v>
+        <v>1860</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>940</v>
+        <v>1920</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D190" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>945</v>
+        <v>1980</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>950</v>
+        <v>2040</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>955</v>
+        <v>2100</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>960</v>
+        <v>2160</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>965</v>
+        <v>2220</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>970</v>
+        <v>2280</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>975</v>
+        <v>2340</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>980</v>
+        <v>2400</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>985</v>
+        <v>2460</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>990</v>
+        <v>2520</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>995</v>
+        <v>2580</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1000</v>
+        <v>2640</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1005</v>
+        <v>2700</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1010</v>
+        <v>2760</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1015</v>
+        <v>2820</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1020</v>
+        <v>2880</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1180</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>1185</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1190</v>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>1195</v>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>1215</v>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B248" t="n">
-        <v>0</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B249" t="n">
-        <v>0</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>0</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B253" t="n">
-        <v>0</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B254" t="n">
-        <v>7.229744458677719e-05</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.5171658301497075</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B255" t="n">
-        <v>0</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>1270</v>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>1275</v>
-      </c>
-      <c r="B257" t="n">
-        <v>0</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>1280</v>
-      </c>
-      <c r="B258" t="n">
-        <v>0</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>1285</v>
-      </c>
-      <c r="B259" t="n">
-        <v>7.803473772431449e-05</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.5171600928565701</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>1290</v>
-      </c>
-      <c r="B260" t="n">
-        <v>0</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>1295</v>
-      </c>
-      <c r="B261" t="n">
-        <v>0</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B262" t="n">
-        <v>0</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0</v>
-      </c>
-      <c r="C263" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>1310</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0</v>
-      </c>
-      <c r="C264" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>1315</v>
-      </c>
-      <c r="B265" t="n">
-        <v>0</v>
-      </c>
-      <c r="C265" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>1320</v>
-      </c>
-      <c r="B266" t="n">
-        <v>0</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>1325</v>
-      </c>
-      <c r="B267" t="n">
-        <v>0</v>
-      </c>
-      <c r="C267" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B268" t="n">
-        <v>0.0001061990477431463</v>
-      </c>
-      <c r="C268" t="n">
-        <v>0.5171319285465512</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>1335</v>
-      </c>
-      <c r="B269" t="n">
-        <v>0</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D269" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>1340</v>
-      </c>
-      <c r="B270" t="n">
-        <v>0</v>
-      </c>
-      <c r="C270" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>1345</v>
-      </c>
-      <c r="B271" t="n">
-        <v>0</v>
-      </c>
-      <c r="C271" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>1350</v>
-      </c>
-      <c r="B272" t="n">
-        <v>0</v>
-      </c>
-      <c r="C272" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>1355</v>
-      </c>
-      <c r="B273" t="n">
-        <v>0</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>1360</v>
-      </c>
-      <c r="B274" t="n">
-        <v>0</v>
-      </c>
-      <c r="C274" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>1365</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0</v>
-      </c>
-      <c r="C275" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>1370</v>
-      </c>
-      <c r="B276" t="n">
-        <v>0</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>1375</v>
-      </c>
-      <c r="B277" t="n">
-        <v>0.001064770784398788</v>
-      </c>
-      <c r="C277" t="n">
-        <v>0.5161733568098955</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>1380</v>
-      </c>
-      <c r="B278" t="n">
-        <v>0.001306984789969822</v>
-      </c>
-      <c r="C278" t="n">
-        <v>0.5159311428043245</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>1385</v>
-      </c>
-      <c r="B279" t="n">
-        <v>0</v>
-      </c>
-      <c r="C279" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>1390</v>
-      </c>
-      <c r="B280" t="n">
-        <v>0</v>
-      </c>
-      <c r="C280" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0</v>
-      </c>
-      <c r="C281" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>1400</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0</v>
-      </c>
-      <c r="C282" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>1405</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0</v>
-      </c>
-      <c r="C283" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>1410</v>
-      </c>
-      <c r="B284" t="n">
-        <v>0</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>1415</v>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>1420</v>
-      </c>
-      <c r="B286" t="n">
-        <v>0</v>
-      </c>
-      <c r="C286" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>1425</v>
-      </c>
-      <c r="B287" t="n">
-        <v>0.0002524858632840938</v>
-      </c>
-      <c r="C287" t="n">
-        <v>0.5169856417310102</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B288" t="n">
-        <v>0.0002302363298972689</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.5170078912643971</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>1435</v>
-      </c>
-      <c r="B289" t="n">
-        <v>0.0002084523369734734</v>
-      </c>
-      <c r="C289" t="n">
-        <v>0.5170296752573209</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>1440</v>
-      </c>
-      <c r="B290" t="n">
-        <v>0</v>
-      </c>
-      <c r="C290" t="n">
-        <v>0.5172381275942943</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0.5172381275942943</v>
+        <v>0.5153633333333333</v>
       </c>
     </row>
   </sheetData>
